--- a/lin_R1_by_R2 (1 by 2)1000.xlsx
+++ b/lin_R1_by_R2 (1 by 2)1000.xlsx
@@ -356,6 +356,152 @@
         <v>-0.0756387541591433</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.740920889440843</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.1916895476403813</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.759173666288139</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.4735938440434175</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.372995560518043</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.505275236799243</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.930730894527718</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.725273245427864</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10.984468213516905</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13.828626169041708</v>
+      </c>
+      <c r="K3" t="n">
+        <v>17.40920889440843</v>
+      </c>
+      <c r="L3" t="n">
+        <v>21.916895476403813</v>
+      </c>
+      <c r="M3" t="n">
+        <v>27.591736662881388</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34.735938440434175</v>
+      </c>
+      <c r="O3" t="n">
+        <v>43.729955605180436</v>
+      </c>
+      <c r="P3" t="n">
+        <v>55.05275236799243</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>69.30730894527719</v>
+      </c>
+      <c r="R3" t="n">
+        <v>87.25273245427864</v>
+      </c>
+      <c r="S3" t="n">
+        <v>109.84468213516904</v>
+      </c>
+      <c r="T3" t="n">
+        <v>138.2862616904171</v>
+      </c>
+      <c r="U3" t="n">
+        <v>174.0920889440843</v>
+      </c>
+      <c r="V3" t="n">
+        <v>219.16895476403812</v>
+      </c>
+      <c r="W3" t="n">
+        <v>275.9173666288139</v>
+      </c>
+      <c r="X3" t="n">
+        <v>347.35938440434177</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>437.29955605180436</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>550.5275236799243</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>693.0730894527718</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>872.5273245427865</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1098.4468213516905</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1382.8626169041709</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1740.920889440843</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2191.689547640381</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2759.173666288139</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3473.5938440434174</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>4372.995560518044</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>5505.2752367992425</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>6930.730894527718</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>8725.273245427865</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>10984.468213516904</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>13828.626169041709</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>17409.20889440843</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21916.895476403814</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>27591.73666288139</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>34735.938440434176</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>43729.95560518043</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>55052.75236799243</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>69307.30894527718</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>87252.73245427865</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -659,6 +805,152 @@
       </c>
       <c r="AV2" t="n">
         <v>-0.07568335267133028</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.740920889440843</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.1916895476403813</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.759173666288139</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.4735938440434175</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.372995560518043</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.505275236799243</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.930730894527718</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.725273245427864</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10.984468213516905</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13.828626169041708</v>
+      </c>
+      <c r="K3" t="n">
+        <v>17.40920889440843</v>
+      </c>
+      <c r="L3" t="n">
+        <v>21.916895476403813</v>
+      </c>
+      <c r="M3" t="n">
+        <v>27.591736662881388</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34.735938440434175</v>
+      </c>
+      <c r="O3" t="n">
+        <v>43.729955605180436</v>
+      </c>
+      <c r="P3" t="n">
+        <v>55.05275236799243</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>69.30730894527719</v>
+      </c>
+      <c r="R3" t="n">
+        <v>87.25273245427864</v>
+      </c>
+      <c r="S3" t="n">
+        <v>109.84468213516904</v>
+      </c>
+      <c r="T3" t="n">
+        <v>138.2862616904171</v>
+      </c>
+      <c r="U3" t="n">
+        <v>174.0920889440843</v>
+      </c>
+      <c r="V3" t="n">
+        <v>219.16895476403812</v>
+      </c>
+      <c r="W3" t="n">
+        <v>275.9173666288139</v>
+      </c>
+      <c r="X3" t="n">
+        <v>347.35938440434177</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>437.29955605180436</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>550.5275236799243</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>693.0730894527718</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>872.5273245427865</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1098.4468213516905</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1382.8626169041709</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1740.920889440843</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2191.689547640381</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2759.173666288139</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3473.5938440434174</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>4372.995560518044</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>5505.2752367992425</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>6930.730894527718</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>8725.273245427865</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>10984.468213516904</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>13828.626169041709</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>17409.20889440843</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21916.895476403814</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>27591.73666288139</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>34735.938440434176</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>43729.95560518043</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>55052.75236799243</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>69307.30894527718</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>87252.73245427865</v>
       </c>
     </row>
   </sheetData>
@@ -966,6 +1258,152 @@
         <v>-0.07568975525815018</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.740920889440843</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.1916895476403813</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.759173666288139</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.4735938440434175</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.372995560518043</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.505275236799243</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.930730894527718</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.725273245427864</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10.984468213516905</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13.828626169041708</v>
+      </c>
+      <c r="K3" t="n">
+        <v>17.40920889440843</v>
+      </c>
+      <c r="L3" t="n">
+        <v>21.916895476403813</v>
+      </c>
+      <c r="M3" t="n">
+        <v>27.591736662881388</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34.735938440434175</v>
+      </c>
+      <c r="O3" t="n">
+        <v>43.729955605180436</v>
+      </c>
+      <c r="P3" t="n">
+        <v>55.05275236799243</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>69.30730894527719</v>
+      </c>
+      <c r="R3" t="n">
+        <v>87.25273245427864</v>
+      </c>
+      <c r="S3" t="n">
+        <v>109.84468213516904</v>
+      </c>
+      <c r="T3" t="n">
+        <v>138.2862616904171</v>
+      </c>
+      <c r="U3" t="n">
+        <v>174.0920889440843</v>
+      </c>
+      <c r="V3" t="n">
+        <v>219.16895476403812</v>
+      </c>
+      <c r="W3" t="n">
+        <v>275.9173666288139</v>
+      </c>
+      <c r="X3" t="n">
+        <v>347.35938440434177</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>437.29955605180436</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>550.5275236799243</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>693.0730894527718</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>872.5273245427865</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1098.4468213516905</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1382.8626169041709</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1740.920889440843</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2191.689547640381</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2759.173666288139</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3473.5938440434174</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>4372.995560518044</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>5505.2752367992425</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>6930.730894527718</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>8725.273245427865</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>10984.468213516904</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>13828.626169041709</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>17409.20889440843</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21916.895476403814</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>27591.73666288139</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>34735.938440434176</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>43729.95560518043</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>55052.75236799243</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>69307.30894527718</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>87252.73245427865</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1271,6 +1709,152 @@
         <v>-0.07563850200662883</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.740920889440843</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.1916895476403813</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.759173666288139</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.4735938440434175</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.372995560518043</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.505275236799243</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.930730894527718</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.725273245427864</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10.984468213516905</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13.828626169041708</v>
+      </c>
+      <c r="K3" t="n">
+        <v>17.40920889440843</v>
+      </c>
+      <c r="L3" t="n">
+        <v>21.916895476403813</v>
+      </c>
+      <c r="M3" t="n">
+        <v>27.591736662881388</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34.735938440434175</v>
+      </c>
+      <c r="O3" t="n">
+        <v>43.729955605180436</v>
+      </c>
+      <c r="P3" t="n">
+        <v>55.05275236799243</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>69.30730894527719</v>
+      </c>
+      <c r="R3" t="n">
+        <v>87.25273245427864</v>
+      </c>
+      <c r="S3" t="n">
+        <v>109.84468213516904</v>
+      </c>
+      <c r="T3" t="n">
+        <v>138.2862616904171</v>
+      </c>
+      <c r="U3" t="n">
+        <v>174.0920889440843</v>
+      </c>
+      <c r="V3" t="n">
+        <v>219.16895476403812</v>
+      </c>
+      <c r="W3" t="n">
+        <v>275.9173666288139</v>
+      </c>
+      <c r="X3" t="n">
+        <v>347.35938440434177</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>437.29955605180436</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>550.5275236799243</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>693.0730894527718</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>872.5273245427865</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1098.4468213516905</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1382.8626169041709</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1740.920889440843</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2191.689547640381</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2759.173666288139</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3473.5938440434174</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>4372.995560518044</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>5505.2752367992425</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>6930.730894527718</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>8725.273245427865</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>10984.468213516904</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>13828.626169041709</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>17409.20889440843</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21916.895476403814</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>27591.73666288139</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>34735.938440434176</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>43729.95560518043</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>55052.75236799243</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>69307.30894527718</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>87252.73245427865</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/lin_R1_by_R2 (1 by 2)1000.xlsx
+++ b/lin_R1_by_R2 (1 by 2)1000.xlsx
@@ -66,142 +66,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.8333326977204695</v>
+        <v>0.833331921976445</v>
       </c>
       <c r="B1" t="n">
-        <v>0.8333323259555395</v>
+        <v>0.8333310964868962</v>
       </c>
       <c r="C1" t="n">
-        <v>0.8333317367489024</v>
+        <v>0.8333297881794023</v>
       </c>
       <c r="D1" t="n">
-        <v>0.8333308029220003</v>
+        <v>0.833327714665005</v>
       </c>
       <c r="E1" t="n">
-        <v>0.8333293229128473</v>
+        <v>0.8333244283994181</v>
       </c>
       <c r="F1" t="n">
-        <v>0.8333269772733638</v>
+        <v>0.8333192201030192</v>
       </c>
       <c r="G1" t="n">
-        <v>0.8333232597278847</v>
+        <v>0.8333109657193944</v>
       </c>
       <c r="H1" t="n">
-        <v>0.8333173679222916</v>
+        <v>0.833297883930153</v>
       </c>
       <c r="I1" t="n">
-        <v>0.8333080303083003</v>
+        <v>0.8332771520155323</v>
       </c>
       <c r="J1" t="n">
-        <v>0.8332932318620667</v>
+        <v>0.83324429747073</v>
       </c>
       <c r="K1" t="n">
-        <v>0.8332697795997743</v>
+        <v>0.8331922348780357</v>
       </c>
       <c r="L1" t="n">
-        <v>0.8332326145244497</v>
+        <v>0.8331097422010946</v>
       </c>
       <c r="M1" t="n">
-        <v>0.8331737225365317</v>
+        <v>0.8329790527709859</v>
       </c>
       <c r="N1" t="n">
-        <v>0.8330804118604794</v>
+        <v>0.8327720561322117</v>
       </c>
       <c r="O1" t="n">
-        <v>0.832932591772151</v>
+        <v>0.8324443200892093</v>
       </c>
       <c r="P1" t="n">
-        <v>0.8326984817843731</v>
+        <v>0.831925724525967</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.8323278665151194</v>
+        <v>0.831105886805007</v>
       </c>
       <c r="R1" t="n">
-        <v>0.8317415436470511</v>
+        <v>0.8298117320472291</v>
       </c>
       <c r="S1" t="n">
-        <v>0.8308149443836348</v>
+        <v>0.827773593758482</v>
       </c>
       <c r="T1" t="n">
-        <v>0.8293530266252838</v>
+        <v>0.8245755042660083</v>
       </c>
       <c r="U1" t="n">
-        <v>0.8270525794856048</v>
+        <v>0.8195860190452375</v>
       </c>
       <c r="V1" t="n">
-        <v>0.823447564874533</v>
+        <v>0.8118709026808145</v>
       </c>
       <c r="W1" t="n">
-        <v>0.8178345730067003</v>
+        <v>0.8001042161396623</v>
       </c>
       <c r="X1" t="n">
-        <v>0.8091824558518217</v>
+        <v>0.7825288615047035</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.7960496280746817</v>
+        <v>0.7570762469698347</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.7765736264139844</v>
+        <v>0.7218096929183697</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.748660338840444</v>
+        <v>0.6757981242275599</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.7105400318976446</v>
+        <v>0.6201868339415221</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.6617387680693269</v>
+        <v>0.5586835328847227</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.6040887830141196</v>
+        <v>0.49662176586509066</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.541891212274184</v>
+        <v>0.438855031073567</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.48057550418065553</v>
+        <v>0.3879954889719806</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.42451398344689256</v>
+        <v>0.3442055008639383</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.37561357091284536</v>
+        <v>0.3062715806282575</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.3335349549940561</v>
+        <v>0.27285080535496736</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.29692550507739296</v>
+        <v>0.2430839240316624</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.2645450716546633</v>
+        <v>0.21652984834666608</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.235671626536534</v>
+        <v>0.1928817409777274</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.2099250819316572</v>
+        <v>0.17183434817990773</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.18700341039840934</v>
+        <v>0.15309598679067757</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.1666015988315853</v>
+        <v>0.1364091094462504</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.14843640570469327</v>
+        <v>0.12154711365345382</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.13225928207609203</v>
+        <v>0.10830887670737029</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.1178508269730901</v>
+        <v>0.0965157980562565</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.10501620665142966</v>
+        <v>0.08600923168642594</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.09358240823754436</v>
+        <v>0.07664817629715696</v>
       </c>
       <c r="AU1" t="n">
         <v>0.08339572392957656</v>
@@ -212,142 +212,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-276.6117287454735</v>
+        <v>-185.63051060415944</v>
       </c>
       <c r="B2" t="n">
-        <v>-219.7207901306715</v>
+        <v>-147.45197889190538</v>
       </c>
       <c r="C2" t="n">
-        <v>-174.53078480562968</v>
+        <v>-117.12580273997881</v>
       </c>
       <c r="D2" t="n">
-        <v>-138.6351801999915</v>
+        <v>-93.03700268131067</v>
       </c>
       <c r="E2" t="n">
-        <v>-110.1224044733053</v>
+        <v>-73.90276226849637</v>
       </c>
       <c r="F2" t="n">
-        <v>-87.47404834333409</v>
+        <v>-58.70411341815884</v>
       </c>
       <c r="G2" t="n">
-        <v>-69.48400425366367</v>
+        <v>-46.631672640834815</v>
       </c>
       <c r="H2" t="n">
-        <v>-55.19423674582504</v>
+        <v>-37.042538410773226</v>
       </c>
       <c r="I2" t="n">
-        <v>-43.84376357283893</v>
+        <v>-29.426054299465875</v>
       </c>
       <c r="J2" t="n">
-        <v>-34.82813061005643</v>
+        <v>-23.376614627055236</v>
       </c>
       <c r="K2" t="n">
-        <v>-27.6672224497741</v>
+        <v>-18.572064417704226</v>
       </c>
       <c r="L2" t="n">
-        <v>-21.979694466940504</v>
+        <v>-14.75654334653327</v>
       </c>
       <c r="M2" t="n">
-        <v>-17.462664751349777</v>
+        <v>-11.726859993534346</v>
       </c>
       <c r="N2" t="n">
-        <v>-13.875584390075518</v>
+        <v>-9.32167066016495</v>
       </c>
       <c r="O2" t="n">
-        <v>-11.027427059088561</v>
+        <v>-7.412886235993558</v>
       </c>
       <c r="P2" t="n">
-        <v>-8.766515574554004</v>
+        <v>-5.898849015364173</v>
       </c>
       <c r="Q2" t="n">
-        <v>-6.972443336252996</v>
+        <v>-4.698915153338816</v>
       </c>
       <c r="R2" t="n">
-        <v>-5.5496598698183695</v>
+        <v>-3.7491524057499444</v>
       </c>
       <c r="S2" t="n">
-        <v>-4.422377736266734</v>
+        <v>-2.998920494391538</v>
       </c>
       <c r="T2" t="n">
-        <v>-3.5305273757583353</v>
+        <v>-2.4081453565051274</v>
       </c>
       <c r="U2" t="n">
-        <v>-2.8265402587307515</v>
+        <v>-1.945130229836162</v>
       </c>
       <c r="V2" t="n">
-        <v>-2.2727812408964323</v>
+        <v>-1.5847671910788643</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.839479626909269</v>
+        <v>-1.3070252505299083</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.5030264885308804</v>
+        <v>-1.0956052434782926</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.2445172556277533</v>
+        <v>-0.9366941377596038</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.0484367426539052</v>
+        <v>-0.8178695423253013</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.901441247705057</v>
+        <v>-0.7274236188954264</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.7913384983848317</v>
+        <v>-0.6545491279745571</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.7065984869255536</v>
+        <v>-0.5905468910967646</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.6368267079396708</v>
+        <v>-0.5302851848971771</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.5741595226650269</v>
+        <v>-0.47249574729852617</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.5145458795831023</v>
+        <v>-0.41836154747876675</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.4575682945468737</v>
+        <v>-0.36944883008256524</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.4047039182756719</v>
+        <v>-0.3263973775179892</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.35734739487629397</v>
+        <v>-0.2888171354888731</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.3158300578742951</v>
+        <v>-0.25587730493938604</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.27957656665099745</v>
+        <v>-0.22683745829142704</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.24774374577519467</v>
+        <v>-0.20117751113782645</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.21965277102092187</v>
+        <v>-0.17849697858379268</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.1948274490251381</v>
+        <v>-0.15844100242962503</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.17288301397515657</v>
+        <v>-0.14069340478748388</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.15347443864352472</v>
+        <v>-0.12497823785036186</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.13629657215085006</v>
+        <v>-0.11105455280458279</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.12108342400098823</v>
+        <v>-0.09871137176185218</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.10760249867654122</v>
+        <v>-0.08776375749113055</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.09565015251128305</v>
+        <v>-0.07804940858972663</v>
       </c>
       <c r="AU2" t="n">
         <v>-0.0850478231998226</v>
@@ -358,142 +358,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.740920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>2.1916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>2.759173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>3.4735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>4.372995560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>5.505275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>6.930730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>8.725273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>10.984468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>13.828626169041708</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>17.40920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>21.916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>27.591736662881388</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>34.735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>43.729955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>55.05275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>69.30730894527719</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>87.25273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>109.84468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>138.2862616904171</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>174.0920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>219.16895476403812</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>275.9173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>347.35938440434177</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>437.29955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>550.5275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>693.0730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>872.5273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>1098.4468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>1382.8626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1740.920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>2191.689547640381</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>2759.173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>3473.5938440434174</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>4372.995560518044</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5505.2752367992425</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>6930.730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>8725.273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>10984.468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>13828.626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>17409.20889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>21916.895476403814</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>27591.73666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>34735.938440434176</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>43729.95560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>55052.75236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>
@@ -517,142 +517,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.8333333073985468</v>
+        <v>0.8333332757374401</v>
       </c>
       <c r="B1" t="n">
-        <v>0.833333292226562</v>
+        <v>0.8333332420356728</v>
       </c>
       <c r="C1" t="n">
-        <v>0.8333332681761951</v>
+        <v>0.8333331886003194</v>
       </c>
       <c r="D1" t="n">
-        <v>0.8333332300479014</v>
+        <v>0.8333331038566063</v>
       </c>
       <c r="E1" t="n">
-        <v>0.8333331695909204</v>
+        <v>0.8333329694102702</v>
       </c>
       <c r="F1" t="n">
-        <v>0.8333330737034665</v>
+        <v>0.833332755984086</v>
       </c>
       <c r="G1" t="n">
-        <v>0.833332921557286</v>
+        <v>0.8333324168646601</v>
       </c>
       <c r="H1" t="n">
-        <v>0.8333326799827842</v>
+        <v>0.8333318772324945</v>
       </c>
       <c r="I1" t="n">
-        <v>0.8333322960103036</v>
+        <v>0.8333310165389588</v>
       </c>
       <c r="J1" t="n">
-        <v>0.8333316846857278</v>
+        <v>0.8333296387886219</v>
       </c>
       <c r="K1" t="n">
-        <v>0.8333307088482078</v>
+        <v>0.8333274209598709</v>
       </c>
       <c r="L1" t="n">
-        <v>0.8333291447941249</v>
+        <v>0.8333238200387598</v>
       </c>
       <c r="M1" t="n">
-        <v>0.8333266221289986</v>
+        <v>0.8333178976375021</v>
       </c>
       <c r="N1" t="n">
-        <v>0.8333225140989238</v>
+        <v>0.8333079721513795</v>
       </c>
       <c r="O1" t="n">
-        <v>0.8333157279576899</v>
+        <v>0.8332908941085594</v>
       </c>
       <c r="P1" t="n">
-        <v>0.8333042835424581</v>
+        <v>0.8332604708098746</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.83328442450274</v>
+        <v>0.8332039308907878</v>
       </c>
       <c r="R1" t="n">
-        <v>0.8332486672994457</v>
+        <v>0.8330938420745129</v>
       </c>
       <c r="S1" t="n">
-        <v>0.8331813949585564</v>
+        <v>0.8328695702773362</v>
       </c>
       <c r="T1" t="n">
-        <v>0.8330487591365681</v>
+        <v>0.8323953370611414</v>
       </c>
       <c r="U1" t="n">
-        <v>0.8327755588082354</v>
+        <v>0.8313687543595221</v>
       </c>
       <c r="V1" t="n">
-        <v>0.8321933152802234</v>
+        <v>0.8291349095532589</v>
       </c>
       <c r="W1" t="n">
-        <v>0.8309287088484714</v>
+        <v>0.8243539098749711</v>
       </c>
       <c r="X1" t="n">
-        <v>0.8281828747348323</v>
+        <v>0.8145389127593221</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.8223561552937555</v>
+        <v>0.7957498064271602</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.8105823541953051</v>
+        <v>0.7631927072074902</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.7885730517597345</v>
+        <v>0.7135004672827409</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.7516202364204457</v>
+        <v>0.64792568366246</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.6973023190263934</v>
+        <v>0.5734450285799227</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.628461591228285</v>
+        <v>0.49975665117394086</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.5532474060268459</v>
+        <v>0.4345250461551676</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.48124567342403857</v>
+        <v>0.3808033255206349</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.4189948917803469</v>
+        <v>0.3375745853109362</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.3683069578757019</v>
+        <v>0.30180120607044675</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.32740394675734225</v>
+        <v>0.27047203232716027</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.2930757377359839</v>
+        <v>0.24189234811874583</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.26258189154211936</v>
+        <v>0.2157553639724588</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.23464634334081882</v>
+        <v>0.1922556753874055</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.20919912145612216</v>
+        <v>0.17135132308792086</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.18641345375453497</v>
+        <v>0.15275105337626704</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.16615819877654878</v>
+        <v>0.1361644989756891</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.14812222355297475</v>
+        <v>0.12137175844155677</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.13203563697116594</v>
+        <v>0.10818329488066591</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.11769041926501968</v>
+        <v>0.0964260221063355</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.10490140946105157</v>
+        <v>0.0859451014077704</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.09350035922505504</v>
+        <v>0.076602403883412</v>
       </c>
       <c r="AU1" t="n">
         <v>0.08333712636451697</v>
@@ -663,142 +663,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-276.6115795490952</v>
+        <v>-185.6302882861118</v>
       </c>
       <c r="B2" t="n">
-        <v>-219.7206023047956</v>
+        <v>-147.45169901415542</v>
       </c>
       <c r="C2" t="n">
-        <v>-174.53054834932772</v>
+        <v>-117.12545040292711</v>
       </c>
       <c r="D2" t="n">
-        <v>-138.63488252406484</v>
+        <v>-93.03655913152353</v>
       </c>
       <c r="E2" t="n">
-        <v>-110.12202973133456</v>
+        <v>-73.90220390488098</v>
       </c>
       <c r="F2" t="n">
-        <v>-87.47357659073288</v>
+        <v>-58.70341054482233</v>
       </c>
       <c r="G2" t="n">
-        <v>-69.48341039140848</v>
+        <v>-46.63078790502559</v>
       </c>
       <c r="H2" t="n">
-        <v>-55.19348919551504</v>
+        <v>-37.04142485231602</v>
       </c>
       <c r="I2" t="n">
-        <v>-43.84282261831774</v>
+        <v>-29.424652926941853</v>
       </c>
       <c r="J2" t="n">
-        <v>-34.82694632882489</v>
+        <v>-23.374851429742073</v>
       </c>
       <c r="K2" t="n">
-        <v>-27.665732147037208</v>
+        <v>-18.569846729935797</v>
       </c>
       <c r="L2" t="n">
-        <v>-21.977819521444207</v>
+        <v>-14.75375552138717</v>
       </c>
       <c r="M2" t="n">
-        <v>-17.460306796126666</v>
+        <v>-11.723358453602449</v>
       </c>
       <c r="N2" t="n">
-        <v>-13.872620805517608</v>
+        <v>-9.317278649872106</v>
       </c>
       <c r="O2" t="n">
-        <v>-11.023705896133832</v>
+        <v>-7.407389147793399</v>
       </c>
       <c r="P2" t="n">
-        <v>-8.761850342217972</v>
+        <v>-5.89199227199108</v>
       </c>
       <c r="Q2" t="n">
-        <v>-6.966608752607366</v>
+        <v>-4.690408777378733</v>
       </c>
       <c r="R2" t="n">
-        <v>-5.542391006173151</v>
+        <v>-3.738690353377543</v>
       </c>
       <c r="S2" t="n">
-        <v>-4.413377528110363</v>
+        <v>-2.986229511711708</v>
       </c>
       <c r="T2" t="n">
-        <v>-3.5194920617028598</v>
+        <v>-2.393087838394186</v>
       </c>
       <c r="U2" t="n">
-        <v>-2.8132198431962854</v>
+        <v>-1.9278950380599675</v>
       </c>
       <c r="V2" t="n">
-        <v>-2.25710233086423</v>
+        <v>-1.566177198315217</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.821765690561763</v>
+        <v>-1.288932791457197</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.4843362845436012</v>
+        <v>-1.0811780368137096</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.2270406097861013</v>
+        <v>-0.9301211514401426</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.0356824503118711</v>
+        <v>-0.8229414517503321</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.8976837740223551</v>
+        <v>-0.7451992407493491</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.7998750341280936</v>
+        <v>-0.6818102391034349</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.7274053741249807</v>
+        <v>-0.6209184282358493</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.6656072268678849</v>
+        <v>-0.5574143800899336</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.6042083747897453</v>
+        <v>-0.4926211620735055</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.5400329783047781</v>
+        <v>-0.43082608498819447</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.47559297701481057</v>
+        <v>-0.3758151075797931</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.4153199406074315</v>
+        <v>-0.32916151472363914</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.3624964411079876</v>
+        <v>-0.2901784900460979</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.31803943113742317</v>
+        <v>-0.2569752576667887</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.2808045372536576</v>
+        <v>-0.22785114477266366</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.24882687639537093</v>
+        <v>-0.20197282055354293</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.22061989175440155</v>
+        <v>-0.1790492884518035</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.19555359535893543</v>
+        <v>-0.15882296300438736</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.1733818660584437</v>
+        <v>-0.14096498991712308</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.1538224834838317</v>
+        <v>-0.12517161042587094</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.1365446893509252</v>
+        <v>-0.11119172137249433</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.1212598310398671</v>
+        <v>-0.09880866107499507</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.10772761121081531</v>
+        <v>-0.08783274544233977</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.09573888938226213</v>
+        <v>-0.07809831323343672</v>
       </c>
       <c r="AU2" t="n">
         <v>-0.08511074080981917</v>
@@ -809,142 +809,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.740920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>2.1916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>2.759173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>3.4735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>4.372995560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>5.505275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>6.930730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>8.725273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>10.984468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>13.828626169041708</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>17.40920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>21.916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>27.591736662881388</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>34.735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>43.729955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>55.05275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>69.30730894527719</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>87.25273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>109.84468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>138.2862616904171</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>174.0920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>219.16895476403812</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>275.9173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>347.35938440434177</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>437.29955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>550.5275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>693.0730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>872.5273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>1098.4468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>1382.8626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1740.920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>2191.689547640381</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>2759.173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>3473.5938440434174</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>4372.995560518044</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5505.2752367992425</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>6930.730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>8725.273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>10984.468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>13828.626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>17409.20889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>21916.895476403814</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>27591.73666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>34735.938440434176</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>43729.95560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>55052.75236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>
@@ -968,142 +968,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.8999998699200333</v>
+        <v>0.8999997111429905</v>
       </c>
       <c r="B1" t="n">
-        <v>0.8999997938308472</v>
+        <v>0.8999995421614344</v>
       </c>
       <c r="C1" t="n">
-        <v>0.8999996732280903</v>
+        <v>0.8999992742967623</v>
       </c>
       <c r="D1" t="n">
-        <v>0.8999994820616801</v>
+        <v>0.8999988496419287</v>
       </c>
       <c r="E1" t="n">
-        <v>0.8999991790232513</v>
+        <v>0.8999981763131463</v>
       </c>
       <c r="F1" t="n">
-        <v>0.8999986985887842</v>
+        <v>0.8999971084149327</v>
       </c>
       <c r="G1" t="n">
-        <v>0.8999979367723928</v>
+        <v>0.8999954140417725</v>
       </c>
       <c r="H1" t="n">
-        <v>0.899996728422702</v>
+        <v>0.899992723948961</v>
       </c>
       <c r="I1" t="n">
-        <v>0.8999948109264501</v>
+        <v>0.8999884486576224</v>
       </c>
       <c r="J1" t="n">
-        <v>0.8999917658954708</v>
+        <v>0.8999816432035798</v>
       </c>
       <c r="K1" t="n">
-        <v>0.8999869247719579</v>
+        <v>0.8999707830791719</v>
       </c>
       <c r="L1" t="n">
-        <v>0.8999792142714492</v>
+        <v>0.899953384860166</v>
       </c>
       <c r="M1" t="n">
-        <v>0.8999668990252174</v>
+        <v>0.8999253443845479</v>
       </c>
       <c r="N1" t="n">
-        <v>0.8999471426893362</v>
+        <v>0.8998797372949485</v>
       </c>
       <c r="O1" t="n">
-        <v>0.8999152350357169</v>
+        <v>0.8998045460816925</v>
       </c>
       <c r="P1" t="n">
-        <v>0.8998631750355094</v>
+        <v>0.8996781478421639</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.8997769520239973</v>
+        <v>0.8994599731876334</v>
       </c>
       <c r="R1" t="n">
-        <v>0.8996310833302704</v>
+        <v>0.8990705729508112</v>
       </c>
       <c r="S1" t="n">
-        <v>0.8993771978642527</v>
+        <v>0.8983485614837446</v>
       </c>
       <c r="T1" t="n">
-        <v>0.8989195445738903</v>
+        <v>0.8969588395479822</v>
       </c>
       <c r="U1" t="n">
-        <v>0.8980621269223774</v>
+        <v>0.8942065841446065</v>
       </c>
       <c r="V1" t="n">
-        <v>0.896397046658409</v>
+        <v>0.888700440084279</v>
       </c>
       <c r="W1" t="n">
-        <v>0.8930832266570097</v>
+        <v>0.8778754782952686</v>
       </c>
       <c r="X1" t="n">
-        <v>0.8864643305718235</v>
+        <v>0.8576801577437614</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.8735860296356825</v>
+        <v>0.8232544538439077</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.8500473965838177</v>
+        <v>0.7713568682334437</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.8111143991304309</v>
+        <v>0.7034300186424172</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.7545410810828007</v>
+        <v>0.62629341825042</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.683301307192088</v>
+        <v>0.5492757944755592</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.6052795001891059</v>
+        <v>0.4801184088298834</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.529752828004967</v>
+        <v>0.4224828900201906</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.46350961385380807</v>
+        <v>0.37589942340172433</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.40902201308625896</v>
+        <v>0.3373154320655148</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.36493862026863727</v>
+        <v>0.30320378446050666</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.32786731148818926</v>
+        <v>0.2714602181350632</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.29450719040236645</v>
+        <v>0.24198235110638358</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.2633154980228554</v>
+        <v>0.21546200006763808</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.23456986698690566</v>
+        <v>0.1920355666430889</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.20889879455166047</v>
+        <v>0.17125777753038127</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.18623394505666419</v>
+        <v>0.15269878781397722</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.16608283348892178</v>
+        <v>0.13612287647666263</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.14807333543179507</v>
+        <v>0.12134166704393465</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.1319970097001053</v>
+        <v>0.10816241076254741</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.11766316203744814</v>
+        <v>0.09641131373012037</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.10488241033038764</v>
+        <v>0.08593473979384793</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.09348696608953766</v>
+        <v>0.0765951028690727</v>
       </c>
       <c r="AU1" t="n">
         <v>0.08332769270774189</v>
@@ -1114,142 +1114,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-276.61174711069873</v>
+        <v>-185.63053797496372</v>
       </c>
       <c r="B2" t="n">
-        <v>-219.72081325287817</v>
+        <v>-147.4520133555229</v>
       </c>
       <c r="C2" t="n">
-        <v>-174.53081391827072</v>
+        <v>-117.12584613870771</v>
       </c>
       <c r="D2" t="n">
-        <v>-138.63521685763337</v>
+        <v>-93.03705734022745</v>
       </c>
       <c r="E2" t="n">
-        <v>-110.12245063650506</v>
+        <v>-73.902831126191</v>
       </c>
       <c r="F2" t="n">
-        <v>-87.47410648721765</v>
+        <v>-58.704200197022004</v>
       </c>
       <c r="G2" t="n">
-        <v>-69.4840775080564</v>
+        <v>-46.6317820728052</v>
       </c>
       <c r="H2" t="n">
-        <v>-55.19432907852475</v>
+        <v>-37.04267654419748</v>
       </c>
       <c r="I2" t="n">
-        <v>-43.84388003401816</v>
+        <v>-29.42622893055635</v>
       </c>
       <c r="J2" t="n">
-        <v>-34.82827766720238</v>
+        <v>-23.376835932915355</v>
       </c>
       <c r="K2" t="n">
-        <v>-27.667408463639763</v>
+        <v>-18.57234593183745</v>
       </c>
       <c r="L2" t="n">
-        <v>-21.979930398745427</v>
+        <v>-14.756903541031809</v>
       </c>
       <c r="M2" t="n">
-        <v>-17.46296526765515</v>
+        <v>-11.727324970477314</v>
       </c>
       <c r="N2" t="n">
-        <v>-13.875969678837288</v>
+        <v>-9.322278913726734</v>
       </c>
       <c r="O2" t="n">
-        <v>-11.027925954635402</v>
+        <v>-7.4136973200230125</v>
       </c>
       <c r="P2" t="n">
-        <v>-8.767171135346103</v>
+        <v>-5.899959573163686</v>
       </c>
       <c r="Q2" t="n">
-        <v>-6.9733230531166885</v>
+        <v>-4.70048864724539</v>
       </c>
       <c r="R2" t="n">
-        <v>-5.550874584590049</v>
+        <v>-3.7514735786882265</v>
       </c>
       <c r="S2" t="n">
-        <v>-4.424116670490196</v>
+        <v>-3.0024919057739887</v>
       </c>
       <c r="T2" t="n">
-        <v>-3.5331218870933694</v>
+        <v>-2.4138474914804533</v>
       </c>
       <c r="U2" t="n">
-        <v>-2.830575317045134</v>
+        <v>-1.954453883546629</v>
       </c>
       <c r="V2" t="n">
-        <v>-2.2792754190132416</v>
+        <v>-1.6000583877654277</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.8501317783857307</v>
+        <v>-1.331498947010126</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.5204336338979185</v>
+        <v>-1.13261135947511</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.2720483795851862</v>
+        <v>-0.9877747185195951</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.089197512223182</v>
+        <v>-0.8802873889490462</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.9560458157230735</v>
+        <v>-0.793499012279034</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.8556544195232906</v>
+        <v>-0.7144521322026712</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.771965851661616</v>
+        <v>-0.6367777247531099</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.6936172452523734</v>
+        <v>-0.5603923502722219</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.6160911038138385</v>
+        <v>-0.48867110055178625</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.540561548773107</v>
+        <v>-0.42524558868602774</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.47075627437653195</v>
+        <v>-0.37189309308703894</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.40995829692883057</v>
+        <v>-0.32785196840035485</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.35927296735634956</v>
+        <v>-0.2906003954425677</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.317329623422581</v>
+        <v>-0.25773111865972476</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.2814381435862121</v>
+        <v>-0.22824481899852245</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.249513262249158</v>
+        <v>-0.20207984192663664</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.22091185645234587</v>
+        <v>-0.17909752406613785</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.19562835768969655</v>
+        <v>-0.15887542896267184</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.17343118792701318</v>
+        <v>-0.1410062826432198</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.15387342378952912</v>
+        <v>-0.1251995816696996</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.13658192547008102</v>
+        <v>-0.11121144702433174</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.12128520449758264</v>
+        <v>-0.09882267341240243</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.1077456246429162</v>
+        <v>-0.08784266327294775</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.0957516630685885</v>
+        <v>-0.07810533592739209</v>
       </c>
       <c r="AU2" t="n">
         <v>-0.08511978292458712</v>
@@ -1260,142 +1260,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.740920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>2.1916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>2.759173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>3.4735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>4.372995560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>5.505275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>6.930730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>8.725273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>10.984468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>13.828626169041708</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>17.40920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>21.916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>27.591736662881388</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>34.735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>43.729955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>55.05275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>69.30730894527719</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>87.25273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>109.84468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>138.2862616904171</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>174.0920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>219.16895476403812</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>275.9173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>347.35938440434177</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>437.29955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>550.5275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>693.0730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>872.5273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>1098.4468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>1382.8626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1740.920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>2191.689547640381</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>2759.173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>3473.5938440434174</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>4372.995560518044</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5505.2752367992425</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>6930.730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>8725.273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>10984.468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>13828.626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>17409.20889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>21916.895476403814</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>27591.73666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>34735.938440434176</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>43729.95560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>55052.75236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>
@@ -1419,142 +1419,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.8333328348659497</v>
+        <v>0.8333322264925473</v>
       </c>
       <c r="B1" t="n">
-        <v>0.8333325433126297</v>
+        <v>0.8333315790934229</v>
       </c>
       <c r="C1" t="n">
-        <v>0.8333320812270099</v>
+        <v>0.8333305530115499</v>
       </c>
       <c r="D1" t="n">
-        <v>0.8333313488587307</v>
+        <v>0.8333289267225817</v>
       </c>
       <c r="E1" t="n">
-        <v>0.8333301881032762</v>
+        <v>0.8333263490806073</v>
       </c>
       <c r="F1" t="n">
-        <v>0.8333283483546231</v>
+        <v>0.8333222634225662</v>
       </c>
       <c r="G1" t="n">
-        <v>0.8333254323605551</v>
+        <v>0.8333157871598091</v>
       </c>
       <c r="H1" t="n">
-        <v>0.8333208103468996</v>
+        <v>0.8333055206374249</v>
       </c>
       <c r="I1" t="n">
-        <v>0.8333134837574822</v>
+        <v>0.8332892434292762</v>
       </c>
       <c r="J1" t="n">
-        <v>0.833301868904901</v>
+        <v>0.8332634310768359</v>
       </c>
       <c r="K1" t="n">
-        <v>0.8332834530987842</v>
+        <v>0.8332224843714636</v>
       </c>
       <c r="L1" t="n">
-        <v>0.8332542471901114</v>
+        <v>0.8331574958923366</v>
       </c>
       <c r="M1" t="n">
-        <v>0.8332079117809329</v>
+        <v>0.833054265467633</v>
       </c>
       <c r="N1" t="n">
-        <v>0.8331343571048606</v>
+        <v>0.832890082039836</v>
       </c>
       <c r="O1" t="n">
-        <v>0.8330174862470653</v>
+        <v>0.8326284464834312</v>
       </c>
       <c r="P1" t="n">
-        <v>0.832831525874104</v>
+        <v>0.832210287988057</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.8325349873992828</v>
+        <v>0.8315390814531454</v>
       </c>
       <c r="R1" t="n">
-        <v>0.8320605696141022</v>
+        <v>0.8304551954261917</v>
       </c>
       <c r="S1" t="n">
-        <v>0.8312979661321163</v>
+        <v>0.8286913243707401</v>
       </c>
       <c r="T1" t="n">
-        <v>0.8300641269012332</v>
+        <v>0.8257963978062333</v>
       </c>
       <c r="U1" t="n">
-        <v>0.8280516562051082</v>
+        <v>0.8210148148214</v>
       </c>
       <c r="V1" t="n">
-        <v>0.8247417919575217</v>
+        <v>0.8131291982375008</v>
       </c>
       <c r="W1" t="n">
-        <v>0.8192711642180065</v>
+        <v>0.8003533624600503</v>
       </c>
       <c r="X1" t="n">
-        <v>0.8102743937911464</v>
+        <v>0.7804950879524859</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.7958227857029175</v>
+        <v>0.751592595684098</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.7737041441211506</v>
+        <v>0.7127719976177015</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.7421707120727893</v>
+        <v>0.6646756348085039</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.7007404397108347</v>
+        <v>0.6093984263607806</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.6504584865088214</v>
+        <v>0.5503646084731965</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.5937894987189153</v>
+        <v>0.4918383477767579</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.5344639446553751</v>
+        <v>0.43759578594413634</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.47677416223594227</v>
+        <v>0.38947936835638014</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.42409158576517</v>
+        <v>0.3471172193572976</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.3776254262579328</v>
+        <v>0.3091177419795721</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.3365684429667871</v>
+        <v>0.27464554953618564</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.2995489483328928</v>
+        <v>0.24380176034065845</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.2660166643280154</v>
+        <v>0.216725451471936</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.2361896808995415</v>
+        <v>0.1929908552296364</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.21007025489626385</v>
+        <v>0.17195048674844501</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.18711564526891575</v>
+        <v>0.15318188276121678</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.16671297411268415</v>
+        <v>0.13646023767169244</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.1485116829499925</v>
+        <v>0.1215789996612233</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.13230394846286875</v>
+        <v>0.10832944251634997</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.11787919918986256</v>
+        <v>0.09652889408541489</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.10503444542326228</v>
+        <v>0.08601756410773483</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.09359400966870422</v>
+        <v>0.07665347523022846</v>
       </c>
       <c r="AU1" t="n">
         <v>0.0834031060233904</v>
@@ -1565,142 +1565,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-276.61172874641767</v>
+        <v>-185.63051060728338</v>
       </c>
       <c r="B2" t="n">
-        <v>-219.72079013255535</v>
+        <v>-147.45197889813835</v>
       </c>
       <c r="C2" t="n">
-        <v>-174.53078480938836</v>
+        <v>-117.12580275241483</v>
       </c>
       <c r="D2" t="n">
-        <v>-138.6351802074909</v>
+        <v>-93.03700270612254</v>
       </c>
       <c r="E2" t="n">
-        <v>-110.12240448826797</v>
+        <v>-73.90276231799857</v>
       </c>
       <c r="F2" t="n">
-        <v>-87.47404837318685</v>
+        <v>-58.704113516916046</v>
       </c>
       <c r="G2" t="n">
-        <v>-69.4840043132223</v>
+        <v>-46.631672837841364</v>
       </c>
       <c r="H2" t="n">
-        <v>-55.19423686464292</v>
+        <v>-37.042538803726586</v>
       </c>
       <c r="I2" t="n">
-        <v>-43.843763809857364</v>
+        <v>-29.426055083111425</v>
       </c>
       <c r="J2" t="n">
-        <v>-34.828131082798365</v>
+        <v>-23.37661618937131</v>
       </c>
       <c r="K2" t="n">
-        <v>-27.667223392474636</v>
+        <v>-18.572067530947287</v>
       </c>
       <c r="L2" t="n">
-        <v>-21.97969634615761</v>
+        <v>-14.756549545683894</v>
       </c>
       <c r="M2" t="n">
-        <v>-17.46266849545596</v>
+        <v>-11.726872322781208</v>
       </c>
       <c r="N2" t="n">
-        <v>-13.87559184343002</v>
+        <v>-9.32169513532879</v>
       </c>
       <c r="O2" t="n">
-        <v>-11.02744187652701</v>
+        <v>-7.412934678212592</v>
       </c>
       <c r="P2" t="n">
-        <v>-8.766544969483878</v>
+        <v>-5.898944444457372</v>
       </c>
       <c r="Q2" t="n">
-        <v>-6.972501454474937</v>
+        <v>-4.699101753333692</v>
       </c>
       <c r="R2" t="n">
-        <v>-5.5497741692778915</v>
+        <v>-3.7495130300569612</v>
       </c>
       <c r="S2" t="n">
-        <v>-4.422600646874167</v>
+        <v>-2.999604722106601</v>
       </c>
       <c r="T2" t="n">
-        <v>-3.5309563907698367</v>
+        <v>-2.4094067213873913</v>
       </c>
       <c r="U2" t="n">
-        <v>-2.8273489704544086</v>
+        <v>-1.947354060718823</v>
       </c>
       <c r="V2" t="n">
-        <v>-2.2742570763683996</v>
+        <v>-1.5884296380819967</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.8420413935163815</v>
+        <v>-1.312473309820489</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.5071475782930088</v>
+        <v>-1.1025938978804422</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.2504396111364122</v>
+        <v>-0.9439331494426525</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.0556659187020772</v>
+        <v>-0.8232122997559987</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.9083982869481637</v>
+        <v>-0.7289476610360162</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.7958058480382054</v>
+        <v>-0.6516916410991009</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.7069341765378071</v>
+        <v>-0.5842830124000548</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.6329107770008965</v>
+        <v>-0.5224077789255015</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.5672755900985205</v>
+        <v>-0.46481461651652833</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.506555545708547</v>
+        <v>-0.4122972121799796</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.45020180280965105</v>
+        <v>-0.3658091440642766</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.39924164103960647</v>
+        <v>-0.3250992925500481</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.35438453276628634</v>
+        <v>-0.28891694644176485</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.3150224835467373</v>
+        <v>-0.2562703564230333</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.27984786819763907</v>
+        <v>-0.22699604132126133</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.24809522309533827</v>
+        <v>-0.2011522383190319</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.2197438104242009</v>
+        <v>-0.17845774183367663</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.1947860810892487</v>
+        <v>-0.15843032848368405</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.1728521922199995</v>
+        <v>-0.14069058959074318</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.15346781795421252</v>
+        <v>-0.12497568682428634</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.13629386888056447</v>
+        <v>-0.11105298902563923</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.12108109668208569</v>
+        <v>-0.09871049965203055</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.1076011707953265</v>
+        <v>-0.08776325015541717</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.09564939812598082</v>
+        <v>-0.0780491162332347</v>
       </c>
       <c r="AU2" t="n">
         <v>-0.08504738525139954</v>
@@ -1711,142 +1711,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.740920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>2.1916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>2.759173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>3.4735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>4.372995560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>5.505275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>6.930730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>8.725273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>10.984468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>13.828626169041708</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>17.40920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>21.916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>27.591736662881388</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>34.735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>43.729955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>55.05275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>69.30730894527719</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>87.25273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>109.84468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>138.2862616904171</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>174.0920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>219.16895476403812</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>275.9173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>347.35938440434177</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>437.29955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>550.5275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>693.0730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>872.5273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>1098.4468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>1382.8626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1740.920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>2191.689547640381</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>2759.173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>3473.5938440434174</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>4372.995560518044</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5505.2752367992425</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>6930.730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>8725.273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>10984.468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>13828.626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>17409.20889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>21916.895476403814</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>27591.73666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>34735.938440434176</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>43729.95560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>55052.75236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>

--- a/lin_R1_by_R2 (1 by 2)1000.xlsx
+++ b/lin_R1_by_R2 (1 by 2)1000.xlsx
@@ -358,142 +358,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>2.5941879585179306</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>3.2658891439486557</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>4.1115108354196614</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>5.176085471576878</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>6.516305533786727</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>8.203542627499067</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>10.327648280495266</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>13.001738864387825</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>16.368219453889672</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>20.60636741632535</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>25.941879585179304</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>32.65889143948655</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>41.115108354196614</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>51.76085471576878</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>65.16305533786726</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>82.03542627499066</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>103.27648280495266</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>130.01738864387826</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>163.6821945388967</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>206.06367416325352</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>259.41879585179305</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>326.5889143948655</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>411.15108354196616</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>517.6085471576878</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>651.6305533786727</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>820.3542627499065</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>1032.7648280495266</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>1300.1738864387826</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>1636.8219453889672</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>2060.636741632535</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>2594.1879585179304</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>3265.8891439486556</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>4111.510835419662</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>5176.085471576877</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>6516.305533786727</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>8203.542627499066</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>10327.648280495267</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>13001.738864387826</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>16368.219453889671</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>20606.367416325353</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>25941.879585179304</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>32658.891439486557</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>41115.108354196615</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>51760.85471576878</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>65163.05533786727</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>82035.42627499066</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>
@@ -809,142 +809,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>2.5941879585179306</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>3.2658891439486557</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>4.1115108354196614</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>5.176085471576878</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>6.516305533786727</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>8.203542627499067</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>10.327648280495266</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>13.001738864387825</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>16.368219453889672</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>20.60636741632535</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>25.941879585179304</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>32.65889143948655</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>41.115108354196614</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>51.76085471576878</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>65.16305533786726</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>82.03542627499066</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>103.27648280495266</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>130.01738864387826</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>163.6821945388967</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>206.06367416325352</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>259.41879585179305</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>326.5889143948655</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>411.15108354196616</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>517.6085471576878</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>651.6305533786727</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>820.3542627499065</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>1032.7648280495266</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>1300.1738864387826</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>1636.8219453889672</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>2060.636741632535</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>2594.1879585179304</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>3265.8891439486556</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>4111.510835419662</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>5176.085471576877</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>6516.305533786727</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>8203.542627499066</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>10327.648280495267</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>13001.738864387826</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>16368.219453889671</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>20606.367416325353</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>25941.879585179304</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>32658.891439486557</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>41115.108354196615</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>51760.85471576878</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>65163.05533786727</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>82035.42627499066</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>
@@ -1260,142 +1260,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>2.5941879585179306</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>3.2658891439486557</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>4.1115108354196614</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>5.176085471576878</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>6.516305533786727</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>8.203542627499067</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>10.327648280495266</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>13.001738864387825</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>16.368219453889672</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>20.60636741632535</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>25.941879585179304</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>32.65889143948655</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>41.115108354196614</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>51.76085471576878</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>65.16305533786726</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>82.03542627499066</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>103.27648280495266</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>130.01738864387826</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>163.6821945388967</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>206.06367416325352</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>259.41879585179305</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>326.5889143948655</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>411.15108354196616</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>517.6085471576878</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>651.6305533786727</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>820.3542627499065</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>1032.7648280495266</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>1300.1738864387826</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>1636.8219453889672</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>2060.636741632535</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>2594.1879585179304</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>3265.8891439486556</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>4111.510835419662</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>5176.085471576877</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>6516.305533786727</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>8203.542627499066</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>10327.648280495267</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>13001.738864387826</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>16368.219453889671</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>20606.367416325353</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>25941.879585179304</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>32658.891439486557</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>41115.108354196615</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>51760.85471576878</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>65163.05533786727</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>82035.42627499066</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>
@@ -1711,142 +1711,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>2.5941879585179306</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>3.2658891439486557</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>4.1115108354196614</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>5.176085471576878</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>6.516305533786727</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>8.203542627499067</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>10.327648280495266</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>13.001738864387825</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>16.368219453889672</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>20.60636741632535</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>25.941879585179304</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>32.65889143948655</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>41.115108354196614</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>51.76085471576878</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>65.16305533786726</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>82.03542627499066</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>103.27648280495266</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>130.01738864387826</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>163.6821945388967</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>206.06367416325352</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>259.41879585179305</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>326.5889143948655</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>411.15108354196616</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>517.6085471576878</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>651.6305533786727</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>820.3542627499065</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>1032.7648280495266</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>1300.1738864387826</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>1636.8219453889672</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>2060.636741632535</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>2594.1879585179304</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>3265.8891439486556</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>4111.510835419662</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>5176.085471576877</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>6516.305533786727</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>8203.542627499066</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>10327.648280495267</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>13001.738864387826</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>16368.219453889671</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>20606.367416325353</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>25941.879585179304</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>32658.891439486557</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>41115.108354196615</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>51760.85471576878</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>65163.05533786727</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>82035.42627499066</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>

--- a/lin_R1_by_R2 (1 by 2)1000.xlsx
+++ b/lin_R1_by_R2 (1 by 2)1000.xlsx
@@ -66,440 +66,449 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.833331921976445</v>
+        <v>0.8333328533437484</v>
       </c>
       <c r="B1" t="n">
-        <v>0.8333310964868962</v>
+        <v>0.8333325726015111</v>
       </c>
       <c r="C1" t="n">
-        <v>0.8333297881794023</v>
+        <v>0.8333321276556601</v>
       </c>
       <c r="D1" t="n">
-        <v>0.833327714665005</v>
+        <v>0.8333314224655417</v>
       </c>
       <c r="E1" t="n">
-        <v>0.8333244283994181</v>
+        <v>0.8333303048183713</v>
       </c>
       <c r="F1" t="n">
-        <v>0.8333192201030192</v>
+        <v>0.8333285334766443</v>
       </c>
       <c r="G1" t="n">
-        <v>0.8333109657193944</v>
+        <v>0.8333257261134762</v>
       </c>
       <c r="H1" t="n">
-        <v>0.833297883930153</v>
+        <v>0.8333212768036814</v>
       </c>
       <c r="I1" t="n">
-        <v>0.8332771520155323</v>
+        <v>0.8333142252760452</v>
       </c>
       <c r="J1" t="n">
-        <v>0.83324429747073</v>
+        <v>0.8333030497426231</v>
       </c>
       <c r="K1" t="n">
-        <v>0.8331922348780357</v>
+        <v>0.8332853386821001</v>
       </c>
       <c r="L1" t="n">
-        <v>0.8331097422010946</v>
+        <v>0.8332572709698659</v>
       </c>
       <c r="M1" t="n">
-        <v>0.8329790527709859</v>
+        <v>0.8332127927391623</v>
       </c>
       <c r="N1" t="n">
-        <v>0.8327720561322117</v>
+        <v>0.8331423148007233</v>
       </c>
       <c r="O1" t="n">
-        <v>0.8324443200892093</v>
+        <v>0.8330306532276538</v>
       </c>
       <c r="P1" t="n">
-        <v>0.831925724525967</v>
+        <v>0.8328537780304739</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.831105886805007</v>
+        <v>0.8325736917916805</v>
       </c>
       <c r="R1" t="n">
-        <v>0.8298117320472291</v>
+        <v>0.8321303919890053</v>
       </c>
       <c r="S1" t="n">
-        <v>0.827773593758482</v>
+        <v>0.8314293296250295</v>
       </c>
       <c r="T1" t="n">
-        <v>0.8245755042660083</v>
+        <v>0.8303220234163478</v>
       </c>
       <c r="U1" t="n">
-        <v>0.8195860190452375</v>
+        <v>0.8285765482515788</v>
       </c>
       <c r="V1" t="n">
-        <v>0.8118709026808145</v>
+        <v>0.8258337301835476</v>
       </c>
       <c r="W1" t="n">
-        <v>0.8001042161396623</v>
+        <v>0.8215448694857391</v>
       </c>
       <c r="X1" t="n">
-        <v>0.7825288615047035</v>
+        <v>0.8148898400580397</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.7570762469698347</v>
+        <v>0.8046852267318355</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.7218096929183697</v>
+        <v>0.789319004285892</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.6757981242275599</v>
+        <v>0.7667991936062746</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.6201868339415221</v>
+        <v>0.735067337767661</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.5586835328847227</v>
+        <v>0.6927268721944789</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.49662176586509066</v>
+        <v>0.6401073448526235</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.438855031073567</v>
+        <v>0.5800636212506979</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.3879954889719806</v>
+        <v>0.5175746591564188</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.3442055008639383</v>
+        <v>0.45791061050457604</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.3062715806282575</v>
+        <v>0.4045612430224552</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.27285080535496736</v>
+        <v>0.35844980616010724</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.2430839240316624</v>
+        <v>0.3186783152081712</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.21652984834666608</v>
+        <v>0.2838387405518087</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.1928817409777274</v>
+        <v>0.2528866620939319</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.17183434817990773</v>
+        <v>0.22527006395672441</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.15309598679067757</v>
+        <v>0.20066198861874956</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.1364091094462504</v>
+        <v>0.17875932460426183</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.12154711365345382</v>
+        <v>0.15926196866738515</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.10830887670737029</v>
+        <v>0.14190032561013713</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.0965157980562565</v>
+        <v>0.12643800928087945</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.08600923168642594</v>
+        <v>0.11266557514257453</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.07664817629715696</v>
+        <v>0.10039701480426999</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.08339572392957656</v>
+        <v>0.08946713322414913</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.07431952373899185</v>
+        <v>0.07972913474610673</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>0.07105251044335109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-185.63051060415944</v>
+        <v>-318.31041726209395</v>
       </c>
       <c r="B2" t="n">
-        <v>-147.45197889190538</v>
+        <v>-252.8431985752942</v>
       </c>
       <c r="C2" t="n">
-        <v>-117.12580273997881</v>
+        <v>-200.84080220961488</v>
       </c>
       <c r="D2" t="n">
-        <v>-93.03700268131067</v>
+        <v>-159.53391093048563</v>
       </c>
       <c r="E2" t="n">
-        <v>-73.90276226849637</v>
+        <v>-126.72278215015307</v>
       </c>
       <c r="F2" t="n">
-        <v>-58.70411341815884</v>
+        <v>-100.66010361308454</v>
       </c>
       <c r="G2" t="n">
-        <v>-46.631672640834815</v>
+        <v>-79.9579426459637</v>
       </c>
       <c r="H2" t="n">
-        <v>-37.042538410773226</v>
+        <v>-63.51383368013591</v>
       </c>
       <c r="I2" t="n">
-        <v>-29.426054299465875</v>
+        <v>-50.452067936767605</v>
       </c>
       <c r="J2" t="n">
-        <v>-23.376614627055236</v>
+        <v>-40.07705873480305</v>
       </c>
       <c r="K2" t="n">
-        <v>-18.572064417704226</v>
+        <v>-31.836298951196337</v>
       </c>
       <c r="L2" t="n">
-        <v>-14.75654334653327</v>
+        <v>-25.290937976883793</v>
       </c>
       <c r="M2" t="n">
-        <v>-11.726859993534346</v>
+        <v>-20.092411271719293</v>
       </c>
       <c r="N2" t="n">
-        <v>-9.32167066016495</v>
+        <v>-15.96387793226011</v>
       </c>
       <c r="O2" t="n">
-        <v>-7.412886235993558</v>
+        <v>-12.685477706036929</v>
       </c>
       <c r="P2" t="n">
-        <v>-5.898849015364173</v>
+        <v>-10.082622236790668</v>
       </c>
       <c r="Q2" t="n">
-        <v>-4.698915153338816</v>
+        <v>-8.01669681274874</v>
       </c>
       <c r="R2" t="n">
-        <v>-3.7491524057499444</v>
+        <v>-6.377677068211383</v>
       </c>
       <c r="S2" t="n">
-        <v>-2.998920494391538</v>
+        <v>-5.078266695048743</v>
       </c>
       <c r="T2" t="n">
-        <v>-2.4081453565051274</v>
+        <v>-4.049242499636599</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.945130229836162</v>
+        <v>-3.2357560661037263</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.5847671910788643</v>
+        <v>-2.5943897013917603</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.3070252505299083</v>
+        <v>-2.0908000799759976</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.0956052434782926</v>
+        <v>-1.6978072749447364</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.9366941377596038</v>
+        <v>-1.3938015553228364</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.8178695423253013</v>
+        <v>-1.1613519893437096</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.7274236188954264</v>
+        <v>-0.9859291582982909</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.6545491279745571</v>
+        <v>-0.8547406758645337</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.5905468910967646</v>
+        <v>-0.7558659806422886</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.5302851848971771</v>
+        <v>-0.6781003831011722</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.47249574729852617</v>
+        <v>-0.6118439419666565</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.41836154747876675</v>
+        <v>-0.5506255813170728</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.36944883008256524</v>
+        <v>-0.49193692748393336</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.3263973775179892</v>
+        <v>-0.4363563114585499</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.2888171354888731</v>
+        <v>-0.38552594842446214</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.25587730493938604</v>
+        <v>-0.34047086573134017</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.22683745829142704</v>
+        <v>-0.3011050108178114</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.20117751113782645</v>
+        <v>-0.266672588793033</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.17849697858379268</v>
+        <v>-0.23636715375808037</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.15844100242962503</v>
+        <v>-0.20959980829299849</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.14069340478748388</v>
+        <v>-0.18594193362374375</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.12497823785036186</v>
+        <v>-0.16502593846320654</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.11105455280458279</v>
+        <v>-0.1465218024263959</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.09871137176185218</v>
+        <v>-0.1301402371148207</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.08776375749113055</v>
+        <v>-0.11562897371802253</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.07804940858972663</v>
+        <v>-0.10276725907098273</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.0850478231998226</v>
+        <v>-0.09136165687270353</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.0756387541591433</v>
+        <v>-0.0812424765403355</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>-0.07226068190658343</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.5941879585179306</v>
+        <v>1.51285930408472</v>
       </c>
       <c r="B3" t="n">
-        <v>3.2658891439486557</v>
+        <v>1.9045770223814935</v>
       </c>
       <c r="C3" t="n">
-        <v>4.1115108354196614</v>
+        <v>2.3977204121953304</v>
       </c>
       <c r="D3" t="n">
-        <v>5.176085471576878</v>
+        <v>3.018551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>6.516305533786727</v>
+        <v>3.8001307587134345</v>
       </c>
       <c r="F3" t="n">
-        <v>8.203542627499067</v>
+        <v>4.784081180284992</v>
       </c>
       <c r="G3" t="n">
-        <v>10.327648280495266</v>
+        <v>6.022801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>13.001738864387825</v>
+        <v>7.582257694815012</v>
       </c>
       <c r="I3" t="n">
-        <v>16.368219453889672</v>
+        <v>9.545496890774482</v>
       </c>
       <c r="J3" t="n">
-        <v>20.60636741632535</v>
+        <v>12.017068603998208</v>
       </c>
       <c r="K3" t="n">
-        <v>25.941879585179304</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="L3" t="n">
-        <v>32.65889143948655</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="M3" t="n">
-        <v>41.115108354196614</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>51.76085471576878</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>65.16305533786726</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="P3" t="n">
-        <v>82.03542627499066</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.27648280495266</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>130.01738864387826</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="S3" t="n">
-        <v>163.6821945388967</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="T3" t="n">
-        <v>206.06367416325352</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>259.41879585179305</v>
+        <v>151.285930408472</v>
       </c>
       <c r="V3" t="n">
-        <v>326.5889143948655</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="W3" t="n">
-        <v>411.15108354196616</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="X3" t="n">
-        <v>517.6085471576878</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>651.6305533786727</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="Z3" t="n">
-        <v>820.3542627499065</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="AA3" t="n">
-        <v>1032.7648280495266</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="AB3" t="n">
-        <v>1300.1738864387826</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="AC3" t="n">
-        <v>1636.8219453889672</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="AD3" t="n">
-        <v>2060.636741632535</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="AE3" t="n">
-        <v>2594.1879585179304</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="AF3" t="n">
-        <v>3265.8891439486556</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="AG3" t="n">
-        <v>4111.510835419662</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="AH3" t="n">
-        <v>5176.085471576877</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="AI3" t="n">
-        <v>6516.305533786727</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8203.542627499066</v>
+        <v>4784.081180284991</v>
       </c>
       <c r="AK3" t="n">
-        <v>10327.648280495267</v>
+        <v>6022.801369947008</v>
       </c>
       <c r="AL3" t="n">
-        <v>13001.738864387826</v>
+        <v>7582.257694815012</v>
       </c>
       <c r="AM3" t="n">
-        <v>16368.219453889671</v>
+        <v>9545.496890774482</v>
       </c>
       <c r="AN3" t="n">
-        <v>20606.367416325353</v>
+        <v>12017.068603998207</v>
       </c>
       <c r="AO3" t="n">
-        <v>25941.879585179304</v>
+        <v>15128.593040847201</v>
       </c>
       <c r="AP3" t="n">
-        <v>32658.891439486557</v>
+        <v>19045.770223814936</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41115.108354196615</v>
+        <v>23977.204121953306</v>
       </c>
       <c r="AR3" t="n">
-        <v>51760.85471576878</v>
+        <v>30185.51157290287</v>
       </c>
       <c r="AS3" t="n">
-        <v>65163.05533786727</v>
+        <v>38001.307587134346</v>
       </c>
       <c r="AT3" t="n">
-        <v>82035.42627499066</v>
+        <v>47840.811802849916</v>
       </c>
       <c r="AU3" t="n">
-        <v>69307.30894527718</v>
+        <v>60228.01369947008</v>
       </c>
       <c r="AV3" t="n">
-        <v>87252.73245427865</v>
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
@@ -517,440 +526,449 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.8333332757374401</v>
+        <v>0.833333313748998</v>
       </c>
       <c r="B1" t="n">
-        <v>0.8333332420356728</v>
+        <v>0.8333333022925971</v>
       </c>
       <c r="C1" t="n">
-        <v>0.8333331886003194</v>
+        <v>0.833333284132921</v>
       </c>
       <c r="D1" t="n">
-        <v>0.8333331038566063</v>
+        <v>0.8333332553454832</v>
       </c>
       <c r="E1" t="n">
-        <v>0.8333329694102702</v>
+        <v>0.833333209704668</v>
       </c>
       <c r="F1" t="n">
-        <v>0.833332755984086</v>
+        <v>0.8333331373291613</v>
       </c>
       <c r="G1" t="n">
-        <v>0.8333324168646601</v>
+        <v>0.8333330225220225</v>
       </c>
       <c r="H1" t="n">
-        <v>0.8333318772324945</v>
+        <v>0.8333328403145754</v>
       </c>
       <c r="I1" t="n">
-        <v>0.8333310165389588</v>
+        <v>0.8333325509063401</v>
       </c>
       <c r="J1" t="n">
-        <v>0.8333296387886219</v>
+        <v>0.8333320906457686</v>
       </c>
       <c r="K1" t="n">
-        <v>0.8333274209598709</v>
+        <v>0.8333313572156805</v>
       </c>
       <c r="L1" t="n">
-        <v>0.8333238200387598</v>
+        <v>0.8333301848489779</v>
       </c>
       <c r="M1" t="n">
-        <v>0.8333178976375021</v>
+        <v>0.8333283017762376</v>
       </c>
       <c r="N1" t="n">
-        <v>0.8333079721513795</v>
+        <v>0.8333252545877431</v>
       </c>
       <c r="O1" t="n">
-        <v>0.8332908941085594</v>
+        <v>0.8333202678524092</v>
       </c>
       <c r="P1" t="n">
-        <v>0.8332604708098746</v>
+        <v>0.8333119704719634</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.8332039308907878</v>
+        <v>0.8332978348442143</v>
       </c>
       <c r="R1" t="n">
-        <v>0.8330938420745129</v>
+        <v>0.833272974016683</v>
       </c>
       <c r="S1" t="n">
-        <v>0.8328695702773362</v>
+        <v>0.8332274677013566</v>
       </c>
       <c r="T1" t="n">
-        <v>0.8323953370611414</v>
+        <v>0.8331402781258588</v>
       </c>
       <c r="U1" t="n">
-        <v>0.8313687543595221</v>
+        <v>0.8329652842309824</v>
       </c>
       <c r="V1" t="n">
-        <v>0.8291349095532589</v>
+        <v>0.8325994671195738</v>
       </c>
       <c r="W1" t="n">
-        <v>0.8243539098749711</v>
+        <v>0.8318124399957247</v>
       </c>
       <c r="X1" t="n">
-        <v>0.8145389127593221</v>
+        <v>0.8300990052461361</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.7957498064271602</v>
+        <v>0.8264011785174777</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.7631927072074902</v>
+        <v>0.8186775045257161</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.7135004672827409</v>
+        <v>0.8034836331929669</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.64792568366246</v>
+        <v>0.7761533288789981</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.5734450285799227</v>
+        <v>0.7324726604016057</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.49975665117394086</v>
+        <v>0.671810276207563</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.4345250461551676</v>
+        <v>0.5993197690269723</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.3808033255206349</v>
+        <v>0.5243080807814722</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.3375745853109362</v>
+        <v>0.45559377688225283</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.30180120607044675</v>
+        <v>0.39788148218714725</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.27047203232716027</v>
+        <v>0.35135092794121064</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.24189234811874583</v>
+        <v>0.31340452067125435</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.2157553639724588</v>
+        <v>0.2808269165984806</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.1922556753874055</v>
+        <v>0.25139818862381735</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.17135132308792086</v>
+        <v>0.22440707348509464</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.15275105337626704</v>
+        <v>0.19999136815032606</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.1361644989756891</v>
+        <v>0.17822531273154174</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.12137175844155677</v>
+        <v>0.15887341600992397</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.10818329488066591</v>
+        <v>0.1416256755032588</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.0964260221063355</v>
+        <v>0.1262415677890442</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.0859451014077704</v>
+        <v>0.11252475709563982</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.076602403883412</v>
+        <v>0.10029630914897657</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.08333712636451697</v>
+        <v>0.08939517617524133</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.07427770918157388</v>
+        <v>0.07967776157198617</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>0.07101586217522692</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-185.6302882861118</v>
+        <v>-318.3102876101654</v>
       </c>
       <c r="B2" t="n">
-        <v>-147.45169901415542</v>
+        <v>-252.84303535399778</v>
       </c>
       <c r="C2" t="n">
-        <v>-117.12545040292711</v>
+        <v>-200.84059672779549</v>
       </c>
       <c r="D2" t="n">
-        <v>-93.03655913152353</v>
+        <v>-159.53365224743067</v>
       </c>
       <c r="E2" t="n">
-        <v>-73.90220390488098</v>
+        <v>-126.72245649392444</v>
       </c>
       <c r="F2" t="n">
-        <v>-58.70341054482233</v>
+        <v>-100.65969364903778</v>
       </c>
       <c r="G2" t="n">
-        <v>-46.63078790502559</v>
+        <v>-79.95742655745538</v>
       </c>
       <c r="H2" t="n">
-        <v>-37.04142485231602</v>
+        <v>-63.513184014369855</v>
       </c>
       <c r="I2" t="n">
-        <v>-29.424652926941853</v>
+        <v>-50.45125015811764</v>
       </c>
       <c r="J2" t="n">
-        <v>-23.374851429742073</v>
+        <v>-40.076029416151265</v>
       </c>
       <c r="K2" t="n">
-        <v>-18.569846729935797</v>
+        <v>-31.835003522077052</v>
       </c>
       <c r="L2" t="n">
-        <v>-14.75375552138717</v>
+        <v>-25.289307938611877</v>
       </c>
       <c r="M2" t="n">
-        <v>-11.723358453602449</v>
+        <v>-20.09036079110387</v>
       </c>
       <c r="N2" t="n">
-        <v>-9.317278649872106</v>
+        <v>-15.961299751567655</v>
       </c>
       <c r="O2" t="n">
-        <v>-7.407389147793399</v>
+        <v>-12.682238387481014</v>
       </c>
       <c r="P2" t="n">
-        <v>-5.89199227199108</v>
+        <v>-10.078556954723666</v>
       </c>
       <c r="Q2" t="n">
-        <v>-4.690408777378733</v>
+        <v>-8.01160433231692</v>
       </c>
       <c r="R2" t="n">
-        <v>-3.738690353377543</v>
+        <v>-6.371316425461209</v>
       </c>
       <c r="S2" t="n">
-        <v>-2.986229511711708</v>
+        <v>-5.070358816859212</v>
       </c>
       <c r="T2" t="n">
-        <v>-2.393087838394186</v>
+        <v>-4.039483230188825</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.9278950380599675</v>
+        <v>-3.2238527143282543</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.566177198315217</v>
+        <v>-2.5801419940049706</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.288932791457197</v>
+        <v>-2.0742568015139993</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.0811780368137096</v>
+        <v>-1.679532515393049</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.9301211514401426</v>
+        <v>-1.3752509010484002</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.8229414517503321</v>
+        <v>-1.145234347120136</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.7451992407493491</v>
+        <v>-0.9761792806750912</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.6818102391034349</v>
+        <v>-0.8555226363692182</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.6209184282358493</v>
+        <v>-0.7694362560184694</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.5574143800899336</v>
+        <v>-0.7027320310601389</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.4926211620735055</v>
+        <v>-0.6419388001478497</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.43082608498819447</v>
+        <v>-0.5794484309712282</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.3758151075797931</v>
+        <v>-0.5146778237770943</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.32916151472363914</v>
+        <v>-0.45135118962850723</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.2901784900460979</v>
+        <v>-0.39371665201004474</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.2569752576667887</v>
+        <v>-0.34418176974226067</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.22785114477266366</v>
+        <v>-0.3027575899256401</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.20197282055354293</v>
+        <v>-0.2678037583950442</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.1790492884518035</v>
+        <v>-0.23742276031330012</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.15882296300438736</v>
+        <v>-0.2104810453623055</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.14096498991712308</v>
+        <v>-0.18657110654725403</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.12517161042587094</v>
+        <v>-0.16545756344739107</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.11119172137249433</v>
+        <v>-0.14682657923170997</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.09880866107499507</v>
+        <v>-0.13035757814231413</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.08783274544233977</v>
+        <v>-0.11578325058460338</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.07809831323343672</v>
+        <v>-0.10287667810153095</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.08511074080981917</v>
+        <v>-0.09143925529520996</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.07568335267133028</v>
+        <v>-0.08129749004552805</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>-0.07229967411868642</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.5941879585179306</v>
+        <v>1.51285930408472</v>
       </c>
       <c r="B3" t="n">
-        <v>3.2658891439486557</v>
+        <v>1.9045770223814935</v>
       </c>
       <c r="C3" t="n">
-        <v>4.1115108354196614</v>
+        <v>2.3977204121953304</v>
       </c>
       <c r="D3" t="n">
-        <v>5.176085471576878</v>
+        <v>3.018551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>6.516305533786727</v>
+        <v>3.8001307587134345</v>
       </c>
       <c r="F3" t="n">
-        <v>8.203542627499067</v>
+        <v>4.784081180284992</v>
       </c>
       <c r="G3" t="n">
-        <v>10.327648280495266</v>
+        <v>6.022801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>13.001738864387825</v>
+        <v>7.582257694815012</v>
       </c>
       <c r="I3" t="n">
-        <v>16.368219453889672</v>
+        <v>9.545496890774482</v>
       </c>
       <c r="J3" t="n">
-        <v>20.60636741632535</v>
+        <v>12.017068603998208</v>
       </c>
       <c r="K3" t="n">
-        <v>25.941879585179304</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="L3" t="n">
-        <v>32.65889143948655</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="M3" t="n">
-        <v>41.115108354196614</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>51.76085471576878</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>65.16305533786726</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="P3" t="n">
-        <v>82.03542627499066</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.27648280495266</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>130.01738864387826</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="S3" t="n">
-        <v>163.6821945388967</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="T3" t="n">
-        <v>206.06367416325352</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>259.41879585179305</v>
+        <v>151.285930408472</v>
       </c>
       <c r="V3" t="n">
-        <v>326.5889143948655</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="W3" t="n">
-        <v>411.15108354196616</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="X3" t="n">
-        <v>517.6085471576878</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>651.6305533786727</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="Z3" t="n">
-        <v>820.3542627499065</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="AA3" t="n">
-        <v>1032.7648280495266</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="AB3" t="n">
-        <v>1300.1738864387826</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="AC3" t="n">
-        <v>1636.8219453889672</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="AD3" t="n">
-        <v>2060.636741632535</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="AE3" t="n">
-        <v>2594.1879585179304</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="AF3" t="n">
-        <v>3265.8891439486556</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="AG3" t="n">
-        <v>4111.510835419662</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="AH3" t="n">
-        <v>5176.085471576877</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="AI3" t="n">
-        <v>6516.305533786727</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8203.542627499066</v>
+        <v>4784.081180284991</v>
       </c>
       <c r="AK3" t="n">
-        <v>10327.648280495267</v>
+        <v>6022.801369947008</v>
       </c>
       <c r="AL3" t="n">
-        <v>13001.738864387826</v>
+        <v>7582.257694815012</v>
       </c>
       <c r="AM3" t="n">
-        <v>16368.219453889671</v>
+        <v>9545.496890774482</v>
       </c>
       <c r="AN3" t="n">
-        <v>20606.367416325353</v>
+        <v>12017.068603998207</v>
       </c>
       <c r="AO3" t="n">
-        <v>25941.879585179304</v>
+        <v>15128.593040847201</v>
       </c>
       <c r="AP3" t="n">
-        <v>32658.891439486557</v>
+        <v>19045.770223814936</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41115.108354196615</v>
+        <v>23977.204121953306</v>
       </c>
       <c r="AR3" t="n">
-        <v>51760.85471576878</v>
+        <v>30185.51157290287</v>
       </c>
       <c r="AS3" t="n">
-        <v>65163.05533786727</v>
+        <v>38001.307587134346</v>
       </c>
       <c r="AT3" t="n">
-        <v>82035.42627499066</v>
+        <v>47840.811802849916</v>
       </c>
       <c r="AU3" t="n">
-        <v>69307.30894527718</v>
+        <v>60228.01369947008</v>
       </c>
       <c r="AV3" t="n">
-        <v>87252.73245427865</v>
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
@@ -968,440 +986,449 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.8999997111429905</v>
+        <v>0.899999901770062</v>
       </c>
       <c r="B1" t="n">
-        <v>0.8999995421614344</v>
+        <v>0.8999998443124476</v>
       </c>
       <c r="C1" t="n">
-        <v>0.8999992742967623</v>
+        <v>0.8999997532428348</v>
       </c>
       <c r="D1" t="n">
-        <v>0.8999988496419287</v>
+        <v>0.8999996088935833</v>
       </c>
       <c r="E1" t="n">
-        <v>0.8999981763131463</v>
+        <v>0.8999993800811712</v>
       </c>
       <c r="F1" t="n">
-        <v>0.8999971084149327</v>
+        <v>0.8999990173518672</v>
       </c>
       <c r="G1" t="n">
-        <v>0.8999954140417725</v>
+        <v>0.8999984422484776</v>
       </c>
       <c r="H1" t="n">
-        <v>0.899992723948961</v>
+        <v>0.8999975302280483</v>
       </c>
       <c r="I1" t="n">
-        <v>0.8999884486576224</v>
+        <v>0.8999960834093667</v>
       </c>
       <c r="J1" t="n">
-        <v>0.8999816432035798</v>
+        <v>0.8999937869315867</v>
       </c>
       <c r="K1" t="n">
-        <v>0.8999707830791719</v>
+        <v>0.8999901386602642</v>
       </c>
       <c r="L1" t="n">
-        <v>0.899953384860166</v>
+        <v>0.8999843349518443</v>
       </c>
       <c r="M1" t="n">
-        <v>0.8999253443845479</v>
+        <v>0.8999750825168583</v>
       </c>
       <c r="N1" t="n">
-        <v>0.8998797372949485</v>
+        <v>0.8999602825067192</v>
       </c>
       <c r="O1" t="n">
-        <v>0.8998045460816925</v>
+        <v>0.8999364855195455</v>
       </c>
       <c r="P1" t="n">
-        <v>0.8996781478421639</v>
+        <v>0.8998979175303974</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.8994599731876334</v>
+        <v>0.8998346628768009</v>
       </c>
       <c r="R1" t="n">
-        <v>0.8990705729508112</v>
+        <v>0.899729113486082</v>
       </c>
       <c r="S1" t="n">
-        <v>0.8983485614837446</v>
+        <v>0.8995487158807338</v>
       </c>
       <c r="T1" t="n">
-        <v>0.8969588395479822</v>
+        <v>0.8992306271555194</v>
       </c>
       <c r="U1" t="n">
-        <v>0.8942065841446065</v>
+        <v>0.8986486276848052</v>
       </c>
       <c r="V1" t="n">
-        <v>0.888700440084279</v>
+        <v>0.8975420295482858</v>
       </c>
       <c r="W1" t="n">
-        <v>0.8778754782952686</v>
+        <v>0.8953683073044958</v>
       </c>
       <c r="X1" t="n">
-        <v>0.8576801577437614</v>
+        <v>0.8910230588416715</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.8232544538439077</v>
+        <v>0.8823980694502886</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.7713568682334437</v>
+        <v>0.8659464093395198</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.7034300186424172</v>
+        <v>0.8369032079146214</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.62629341825042</v>
+        <v>0.7911058922244627</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.5492757944755592</v>
+        <v>0.7281354167627246</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.4801184088298834</v>
+        <v>0.6531369545202172</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.4224828900201906</v>
+        <v>0.5750514482067735</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.37589942340172433</v>
+        <v>0.5025648788905062</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.3373154320655148</v>
+        <v>0.44085550154907316</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.30320378446050666</v>
+        <v>0.3907473155753448</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.2714602181350632</v>
+        <v>0.3498455641190991</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.24198235110638358</v>
+        <v>0.31454334115305776</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.21546200006763808</v>
+        <v>0.2820914720703253</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.1920355666430889</v>
+        <v>0.251763418830468</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.17125777753038127</v>
+        <v>0.2241738060881842</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.15269878781397722</v>
+        <v>0.19972277700183544</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.13612287647666263</v>
+        <v>0.17809798511740718</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.12134166704393465</v>
+        <v>0.15881397511070497</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.10816241076254741</v>
+        <v>0.14158059737425752</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.09641131373012037</v>
+        <v>0.12620754660056527</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.08593473979384793</v>
+        <v>0.1125011411130146</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.0765951028690727</v>
+        <v>0.10027973467179789</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.08332769270774189</v>
+        <v>0.0893834946121426</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.07427106079891925</v>
+        <v>0.07966953249763224</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>0.07101006144663662</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-185.63053797496372</v>
+        <v>-318.3104332209567</v>
       </c>
       <c r="B2" t="n">
-        <v>-147.4520133555229</v>
+        <v>-252.84321866746566</v>
       </c>
       <c r="C2" t="n">
-        <v>-117.12584613870771</v>
+        <v>-200.8408275064619</v>
       </c>
       <c r="D2" t="n">
-        <v>-93.03705734022745</v>
+        <v>-159.53394278192172</v>
       </c>
       <c r="E2" t="n">
-        <v>-73.902831126191</v>
+        <v>-126.72282225789846</v>
       </c>
       <c r="F2" t="n">
-        <v>-58.704200197022004</v>
+        <v>-100.66015412402658</v>
       </c>
       <c r="G2" t="n">
-        <v>-46.6317820728052</v>
+        <v>-79.9580062719477</v>
       </c>
       <c r="H2" t="n">
-        <v>-37.04267654419748</v>
+        <v>-63.51391385327533</v>
       </c>
       <c r="I2" t="n">
-        <v>-29.42622893055635</v>
+        <v>-50.452169013946296</v>
       </c>
       <c r="J2" t="n">
-        <v>-23.376835932915355</v>
+        <v>-40.07718627302768</v>
       </c>
       <c r="K2" t="n">
-        <v>-18.57234593183745</v>
+        <v>-31.83646008991083</v>
       </c>
       <c r="L2" t="n">
-        <v>-14.756903541031809</v>
+        <v>-25.291141990288725</v>
       </c>
       <c r="M2" t="n">
-        <v>-11.727324970477314</v>
+        <v>-20.09267040531871</v>
       </c>
       <c r="N2" t="n">
-        <v>-9.322278913726734</v>
+        <v>-15.964208736284837</v>
       </c>
       <c r="O2" t="n">
-        <v>-7.4136973200230125</v>
+        <v>-12.685903268633457</v>
       </c>
       <c r="P2" t="n">
-        <v>-5.899959573163686</v>
+        <v>-10.083176087005894</v>
       </c>
       <c r="Q2" t="n">
-        <v>-4.70048864724539</v>
+        <v>-8.01742996553669</v>
       </c>
       <c r="R2" t="n">
-        <v>-3.7514735786882265</v>
+        <v>-6.378671001008464</v>
       </c>
       <c r="S2" t="n">
-        <v>-3.0024919057739887</v>
+        <v>-5.0796574289182335</v>
       </c>
       <c r="T2" t="n">
-        <v>-2.4138474914804533</v>
+        <v>-4.051264986256161</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.954453883546629</v>
+        <v>-3.238823987437194</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.6000583877654277</v>
+        <v>-2.5992315639351378</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.331498947010126</v>
+        <v>-2.0986683493739786</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.13261135947511</v>
+        <v>-1.7107341717831643</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.9877747185195951</v>
+        <v>-1.4147364521019656</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.8802873889490462</v>
+        <v>-1.1937534179005118</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.793499012279034</v>
+        <v>-1.0322446189594325</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.7144521322026712</v>
+        <v>-0.9139204066666158</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.6367777247531099</v>
+        <v>-0.821780781232343</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.5603923502722219</v>
+        <v>-0.7411624971560573</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.48867110055178625</v>
+        <v>-0.6633012992248508</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.42524558868602774</v>
+        <v>-0.5861970762900497</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.37189309308703894</v>
+        <v>-0.5124269221898239</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.32785196840035485</v>
+        <v>-0.4458425577854331</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.2906003954425677</v>
+        <v>-0.3890042356248856</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.25773111865972476</v>
+        <v>-0.3420063030160289</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.22824481899852245</v>
+        <v>-0.30275147187279033</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.20207984192663664</v>
+        <v>-0.2685732719656872</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.17909752406613785</v>
+        <v>-0.23795917905908426</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.15887542896267184</v>
+        <v>-0.21065587893746793</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.1410062826432198</v>
+        <v>-0.18662368815432026</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.1251995816696996</v>
+        <v>-0.1655096021175041</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.11121144702433174</v>
+        <v>-0.14687298126927134</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.09882267341240243</v>
+        <v>-0.13038946719226746</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.08784266327294775</v>
+        <v>-0.11580540446156586</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.07810533592739209</v>
+        <v>-0.10289244281062124</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.08511978292458712</v>
+        <v>-0.09145041691381481</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.07568975525815018</v>
+        <v>-0.08130539281589527</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>-0.07230526974994979</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.5941879585179306</v>
+        <v>1.51285930408472</v>
       </c>
       <c r="B3" t="n">
-        <v>3.2658891439486557</v>
+        <v>1.9045770223814935</v>
       </c>
       <c r="C3" t="n">
-        <v>4.1115108354196614</v>
+        <v>2.3977204121953304</v>
       </c>
       <c r="D3" t="n">
-        <v>5.176085471576878</v>
+        <v>3.018551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>6.516305533786727</v>
+        <v>3.8001307587134345</v>
       </c>
       <c r="F3" t="n">
-        <v>8.203542627499067</v>
+        <v>4.784081180284992</v>
       </c>
       <c r="G3" t="n">
-        <v>10.327648280495266</v>
+        <v>6.022801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>13.001738864387825</v>
+        <v>7.582257694815012</v>
       </c>
       <c r="I3" t="n">
-        <v>16.368219453889672</v>
+        <v>9.545496890774482</v>
       </c>
       <c r="J3" t="n">
-        <v>20.60636741632535</v>
+        <v>12.017068603998208</v>
       </c>
       <c r="K3" t="n">
-        <v>25.941879585179304</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="L3" t="n">
-        <v>32.65889143948655</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="M3" t="n">
-        <v>41.115108354196614</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>51.76085471576878</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>65.16305533786726</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="P3" t="n">
-        <v>82.03542627499066</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.27648280495266</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>130.01738864387826</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="S3" t="n">
-        <v>163.6821945388967</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="T3" t="n">
-        <v>206.06367416325352</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>259.41879585179305</v>
+        <v>151.285930408472</v>
       </c>
       <c r="V3" t="n">
-        <v>326.5889143948655</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="W3" t="n">
-        <v>411.15108354196616</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="X3" t="n">
-        <v>517.6085471576878</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>651.6305533786727</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="Z3" t="n">
-        <v>820.3542627499065</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="AA3" t="n">
-        <v>1032.7648280495266</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="AB3" t="n">
-        <v>1300.1738864387826</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="AC3" t="n">
-        <v>1636.8219453889672</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="AD3" t="n">
-        <v>2060.636741632535</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="AE3" t="n">
-        <v>2594.1879585179304</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="AF3" t="n">
-        <v>3265.8891439486556</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="AG3" t="n">
-        <v>4111.510835419662</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="AH3" t="n">
-        <v>5176.085471576877</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="AI3" t="n">
-        <v>6516.305533786727</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8203.542627499066</v>
+        <v>4784.081180284991</v>
       </c>
       <c r="AK3" t="n">
-        <v>10327.648280495267</v>
+        <v>6022.801369947008</v>
       </c>
       <c r="AL3" t="n">
-        <v>13001.738864387826</v>
+        <v>7582.257694815012</v>
       </c>
       <c r="AM3" t="n">
-        <v>16368.219453889671</v>
+        <v>9545.496890774482</v>
       </c>
       <c r="AN3" t="n">
-        <v>20606.367416325353</v>
+        <v>12017.068603998207</v>
       </c>
       <c r="AO3" t="n">
-        <v>25941.879585179304</v>
+        <v>15128.593040847201</v>
       </c>
       <c r="AP3" t="n">
-        <v>32658.891439486557</v>
+        <v>19045.770223814936</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41115.108354196615</v>
+        <v>23977.204121953306</v>
       </c>
       <c r="AR3" t="n">
-        <v>51760.85471576878</v>
+        <v>30185.51157290287</v>
       </c>
       <c r="AS3" t="n">
-        <v>65163.05533786727</v>
+        <v>38001.307587134346</v>
       </c>
       <c r="AT3" t="n">
-        <v>82035.42627499066</v>
+        <v>47840.811802849916</v>
       </c>
       <c r="AU3" t="n">
-        <v>69307.30894527718</v>
+        <v>60228.01369947008</v>
       </c>
       <c r="AV3" t="n">
-        <v>87252.73245427865</v>
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
@@ -1419,440 +1446,449 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.8333322264925473</v>
+        <v>0.833332956911304</v>
       </c>
       <c r="B1" t="n">
-        <v>0.8333315790934229</v>
+        <v>0.8333327367428306</v>
       </c>
       <c r="C1" t="n">
-        <v>0.8333305530115499</v>
+        <v>0.8333323877966082</v>
       </c>
       <c r="D1" t="n">
-        <v>0.8333289267225817</v>
+        <v>0.8333318347473149</v>
       </c>
       <c r="E1" t="n">
-        <v>0.8333263490806073</v>
+        <v>0.8333309582061718</v>
       </c>
       <c r="F1" t="n">
-        <v>0.8333222634225662</v>
+        <v>0.8333295689391744</v>
       </c>
       <c r="G1" t="n">
-        <v>0.8333157871598091</v>
+        <v>0.8333273669916036</v>
       </c>
       <c r="H1" t="n">
-        <v>0.8333055206374249</v>
+        <v>0.8333238768692478</v>
       </c>
       <c r="I1" t="n">
-        <v>0.8332892434292762</v>
+        <v>0.833318344718469</v>
       </c>
       <c r="J1" t="n">
-        <v>0.8332634310768359</v>
+        <v>0.8333095751440474</v>
       </c>
       <c r="K1" t="n">
-        <v>0.8332224843714636</v>
+        <v>0.8332956720223899</v>
       </c>
       <c r="L1" t="n">
-        <v>0.8331574958923366</v>
+        <v>0.8332736263142329</v>
       </c>
       <c r="M1" t="n">
-        <v>0.833054265467633</v>
+        <v>0.8332386592812487</v>
       </c>
       <c r="N1" t="n">
-        <v>0.832890082039836</v>
+        <v>0.8331831727996133</v>
       </c>
       <c r="O1" t="n">
-        <v>0.8326284464834312</v>
+        <v>0.8330950639782906</v>
       </c>
       <c r="P1" t="n">
-        <v>0.832210287988057</v>
+        <v>0.8329550003884528</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.8315390814531454</v>
+        <v>0.8327319707998518</v>
       </c>
       <c r="R1" t="n">
-        <v>0.8304551954261917</v>
+        <v>0.8323759202592871</v>
       </c>
       <c r="S1" t="n">
-        <v>0.8286913243707401</v>
+        <v>0.8318053493101352</v>
       </c>
       <c r="T1" t="n">
-        <v>0.8257963978062333</v>
+        <v>0.8308860544091272</v>
       </c>
       <c r="U1" t="n">
-        <v>0.8210148148214</v>
+        <v>0.8293942241891885</v>
       </c>
       <c r="V1" t="n">
-        <v>0.8131291982375008</v>
+        <v>0.8269527812850761</v>
       </c>
       <c r="W1" t="n">
-        <v>0.8003533624600503</v>
+        <v>0.822926844550557</v>
       </c>
       <c r="X1" t="n">
-        <v>0.7804950879524859</v>
+        <v>0.8162747706145745</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.751592595684098</v>
+        <v>0.8054060996263582</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.7127719976177015</v>
+        <v>0.788220981571131</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.6646756348085039</v>
+        <v>0.7625805969790721</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.6093984263607806</v>
+        <v>0.7271576531675573</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.5503646084731965</v>
+        <v>0.6820683366362951</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.4918383477767579</v>
+        <v>0.6289256560964881</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.43759578594413634</v>
+        <v>0.570719532191913</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.38947936835638014</v>
+        <v>0.5115351221246115</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.3471172193572976</v>
+        <v>0.4555010920920189</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.3091177419795721</v>
+        <v>0.40523234396790037</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.27464554953618564</v>
+        <v>0.3610438795624861</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.24380176034065845</v>
+        <v>0.32169929672528985</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.216725451471936</v>
+        <v>0.2860448231902926</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.1929908552296364</v>
+        <v>0.2539236075204831</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.17195048674844501</v>
+        <v>0.22557812881969413</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.15318188276121678</v>
+        <v>0.20077525472620883</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.13646023767169244</v>
+        <v>0.17887626287241873</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.1215789996612233</v>
+        <v>0.15936119546828287</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.10832944251634997</v>
+        <v>0.14196157169897683</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.09652889408541489</v>
+        <v>0.1264751502466569</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.08601756410773483</v>
+        <v>0.11268950446807932</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.07665347523022846</v>
+        <v>0.10041230516480816</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.0834031060233904</v>
+        <v>0.0894768586167529</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.07432421702208224</v>
+        <v>0.07973532172237965</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>0.07105644254576213</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-185.63051060728338</v>
+        <v>-318.31041726271354</v>
       </c>
       <c r="B2" t="n">
-        <v>-147.45197889813835</v>
+        <v>-252.84319857653043</v>
       </c>
       <c r="C2" t="n">
-        <v>-117.12580275241483</v>
+        <v>-200.84080221208148</v>
       </c>
       <c r="D2" t="n">
-        <v>-93.03700270612254</v>
+        <v>-159.53391093540705</v>
       </c>
       <c r="E2" t="n">
-        <v>-73.90276231799857</v>
+        <v>-126.72278215997231</v>
       </c>
       <c r="F2" t="n">
-        <v>-58.704113516916046</v>
+        <v>-100.66010363267567</v>
       </c>
       <c r="G2" t="n">
-        <v>-46.631672837841364</v>
+        <v>-79.95794268505044</v>
       </c>
       <c r="H2" t="n">
-        <v>-37.042538803726586</v>
+        <v>-63.5138337581157</v>
       </c>
       <c r="I2" t="n">
-        <v>-29.426055083111425</v>
+        <v>-50.45206809233078</v>
       </c>
       <c r="J2" t="n">
-        <v>-23.37661618937131</v>
+        <v>-40.07705904510712</v>
       </c>
       <c r="K2" t="n">
-        <v>-18.572067530947287</v>
+        <v>-31.83629957006484</v>
       </c>
       <c r="L2" t="n">
-        <v>-14.756549545683894</v>
+        <v>-25.290939210837077</v>
       </c>
       <c r="M2" t="n">
-        <v>-11.726872322781208</v>
+        <v>-20.092413731089074</v>
       </c>
       <c r="N2" t="n">
-        <v>-9.32169513532879</v>
+        <v>-15.96388283085253</v>
       </c>
       <c r="O2" t="n">
-        <v>-7.412934678212592</v>
+        <v>-12.685487453215467</v>
       </c>
       <c r="P2" t="n">
-        <v>-5.898944444457372</v>
+        <v>-10.082641600557615</v>
       </c>
       <c r="Q2" t="n">
-        <v>-4.699101753333692</v>
+        <v>-8.016735183270628</v>
       </c>
       <c r="R2" t="n">
-        <v>-3.7495130300569612</v>
+        <v>-6.377752796847601</v>
       </c>
       <c r="S2" t="n">
-        <v>-2.999604722106601</v>
+        <v>-5.078415207684027</v>
       </c>
       <c r="T2" t="n">
-        <v>-2.4094067213873913</v>
+        <v>-4.049530844366356</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.947354060718823</v>
+        <v>-3.2363071353629795</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.5884296380819967</v>
+        <v>-2.5954171480982873</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.312473309820489</v>
+        <v>-2.0926434289382825</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.1025938978804422</v>
+        <v>-1.7009247214439585</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.9439331494426525</v>
+        <v>-1.3986248786387332</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.8232122997559987</v>
+        <v>-1.1679009214970517</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.7289476610360162</v>
+        <v>-0.9932961892599056</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.6516916410991009</v>
+        <v>-0.8609884470870021</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.5842830124000548</v>
+        <v>-0.758843459286538</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.5224077789255015</v>
+        <v>-0.6766998877506052</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.46481461651652833</v>
+        <v>-0.6065649897281535</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.4122972121799796</v>
+        <v>-0.5430847158907527</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.3658091440642766</v>
+        <v>-0.4840046767675485</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.3250992925500481</v>
+        <v>-0.4296118051000999</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.28891694644176485</v>
+        <v>-0.38101618456446606</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.2562703564230333</v>
+        <v>-0.3384431877654681</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.22699604132126133</v>
+        <v>-0.30086281890337724</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.2011522383190319</v>
+        <v>-0.26706216001756383</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.17845774183367663</v>
+        <v>-0.23662084863462074</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.15843032848368405</v>
+        <v>-0.2096150694428894</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.14069058959074318</v>
+        <v>-0.18589577269263932</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.12497568682428634</v>
+        <v>-0.16500726397207893</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.11105298902563923</v>
+        <v>-0.14651817173224652</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.09871049965203055</v>
+        <v>-0.13013754274301367</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.08776325015541717</v>
+        <v>-0.1156270578926774</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.0780491162332347</v>
+        <v>-0.10276620389942172</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.08504738525139954</v>
+        <v>-0.09136104565265474</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.07563850200662883</v>
+        <v>-0.08124212339912325</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>-0.07226047869345785</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.5941879585179306</v>
+        <v>1.51285930408472</v>
       </c>
       <c r="B3" t="n">
-        <v>3.2658891439486557</v>
+        <v>1.9045770223814935</v>
       </c>
       <c r="C3" t="n">
-        <v>4.1115108354196614</v>
+        <v>2.3977204121953304</v>
       </c>
       <c r="D3" t="n">
-        <v>5.176085471576878</v>
+        <v>3.018551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>6.516305533786727</v>
+        <v>3.8001307587134345</v>
       </c>
       <c r="F3" t="n">
-        <v>8.203542627499067</v>
+        <v>4.784081180284992</v>
       </c>
       <c r="G3" t="n">
-        <v>10.327648280495266</v>
+        <v>6.022801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>13.001738864387825</v>
+        <v>7.582257694815012</v>
       </c>
       <c r="I3" t="n">
-        <v>16.368219453889672</v>
+        <v>9.545496890774482</v>
       </c>
       <c r="J3" t="n">
-        <v>20.60636741632535</v>
+        <v>12.017068603998208</v>
       </c>
       <c r="K3" t="n">
-        <v>25.941879585179304</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="L3" t="n">
-        <v>32.65889143948655</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="M3" t="n">
-        <v>41.115108354196614</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>51.76085471576878</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>65.16305533786726</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="P3" t="n">
-        <v>82.03542627499066</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.27648280495266</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>130.01738864387826</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="S3" t="n">
-        <v>163.6821945388967</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="T3" t="n">
-        <v>206.06367416325352</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>259.41879585179305</v>
+        <v>151.285930408472</v>
       </c>
       <c r="V3" t="n">
-        <v>326.5889143948655</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="W3" t="n">
-        <v>411.15108354196616</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="X3" t="n">
-        <v>517.6085471576878</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>651.6305533786727</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="Z3" t="n">
-        <v>820.3542627499065</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="AA3" t="n">
-        <v>1032.7648280495266</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="AB3" t="n">
-        <v>1300.1738864387826</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="AC3" t="n">
-        <v>1636.8219453889672</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="AD3" t="n">
-        <v>2060.636741632535</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="AE3" t="n">
-        <v>2594.1879585179304</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="AF3" t="n">
-        <v>3265.8891439486556</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="AG3" t="n">
-        <v>4111.510835419662</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="AH3" t="n">
-        <v>5176.085471576877</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="AI3" t="n">
-        <v>6516.305533786727</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8203.542627499066</v>
+        <v>4784.081180284991</v>
       </c>
       <c r="AK3" t="n">
-        <v>10327.648280495267</v>
+        <v>6022.801369947008</v>
       </c>
       <c r="AL3" t="n">
-        <v>13001.738864387826</v>
+        <v>7582.257694815012</v>
       </c>
       <c r="AM3" t="n">
-        <v>16368.219453889671</v>
+        <v>9545.496890774482</v>
       </c>
       <c r="AN3" t="n">
-        <v>20606.367416325353</v>
+        <v>12017.068603998207</v>
       </c>
       <c r="AO3" t="n">
-        <v>25941.879585179304</v>
+        <v>15128.593040847201</v>
       </c>
       <c r="AP3" t="n">
-        <v>32658.891439486557</v>
+        <v>19045.770223814936</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41115.108354196615</v>
+        <v>23977.204121953306</v>
       </c>
       <c r="AR3" t="n">
-        <v>51760.85471576878</v>
+        <v>30185.51157290287</v>
       </c>
       <c r="AS3" t="n">
-        <v>65163.05533786727</v>
+        <v>38001.307587134346</v>
       </c>
       <c r="AT3" t="n">
-        <v>82035.42627499066</v>
+        <v>47840.811802849916</v>
       </c>
       <c r="AU3" t="n">
-        <v>69307.30894527718</v>
+        <v>60228.01369947008</v>
       </c>
       <c r="AV3" t="n">
-        <v>87252.73245427865</v>
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
